--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/ChfLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/ChfLibor.xlsx
@@ -795,13 +795,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1116,7 +1118,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1196,7 +1198,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1299,13 +1301,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>ChfLibor.xml</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="52" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>18</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\ChfLibor.xml</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1323,7 +1325,7 @@
       </c>
       <c r="F6" s="54" t="str">
         <f>_xll.qlLibor($E6,Currency,$C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborON#0006</v>
+        <v>ChfLiborON#0001</v>
       </c>
       <c r="G6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1345,7 +1347,7 @@
       </c>
       <c r="F7" s="54" t="str">
         <f>_xll.qlLibor($E7,Currency,$C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborTN#0002</v>
+        <v>ChfLiborTN#0001</v>
       </c>
       <c r="G7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1367,7 +1369,7 @@
       </c>
       <c r="F8" s="54" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSN#0002</v>
+        <v>ChfLiborSN#0001</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1389,7 +1391,7 @@
       </c>
       <c r="F9" s="54" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSW#0002</v>
+        <v>ChfLiborSW#0001</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1411,7 +1413,7 @@
       </c>
       <c r="F10" s="54" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor2W#0002</v>
+        <v>ChfLibor2W#0001</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1433,7 +1435,7 @@
       </c>
       <c r="F11" s="54" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor3W#0002</v>
+        <v>ChfLibor3W#0001</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1455,7 +1457,7 @@
       </c>
       <c r="F12" s="54" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor1M#0002</v>
+        <v>ChfLibor1M#0001</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1477,7 +1479,7 @@
       </c>
       <c r="F13" s="54" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor2M#0002</v>
+        <v>ChfLibor2M#0001</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1499,7 +1501,7 @@
       </c>
       <c r="F14" s="54" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor3M#0002</v>
+        <v>ChfLibor3M#0001</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1521,7 +1523,7 @@
       </c>
       <c r="F15" s="54" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor4M#0002</v>
+        <v>ChfLibor4M#0001</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1543,7 +1545,7 @@
       </c>
       <c r="F16" s="54" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor5M#0002</v>
+        <v>ChfLibor5M#0001</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1565,7 +1567,7 @@
       </c>
       <c r="F17" s="54" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor6M#0002</v>
+        <v>ChfLibor6M#0001</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1587,7 +1589,7 @@
       </c>
       <c r="F18" s="54" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor7M#0002</v>
+        <v>ChfLibor7M#0001</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1609,7 +1611,7 @@
       </c>
       <c r="F19" s="54" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor8M#0002</v>
+        <v>ChfLibor8M#0001</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1631,7 +1633,7 @@
       </c>
       <c r="F20" s="54" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor9M#0002</v>
+        <v>ChfLibor9M#0001</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1653,7 +1655,7 @@
       </c>
       <c r="F21" s="54" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor10M#0002</v>
+        <v>ChfLibor10M#0001</v>
       </c>
       <c r="G21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1675,7 +1677,7 @@
       </c>
       <c r="F22" s="54" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor11M#0002</v>
+        <v>ChfLibor11M#0001</v>
       </c>
       <c r="G22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1697,7 +1699,7 @@
       </c>
       <c r="F23" s="54" t="str">
         <f>_xll.qlLibor($E23,Currency,$C23,Currency&amp;$D23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor1Y#0002</v>
+        <v>ChfLibor1Y#0001</v>
       </c>
       <c r="G23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -1797,13 +1799,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>ChfLiborSwapIsda.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\ChfLiborSwapIsda.xml</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -1821,7 +1823,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda1Y#0007</v>
+        <v>ChfLiborSwapIsda1Y#0001</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1843,7 +1845,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda2Y#0003</v>
+        <v>ChfLiborSwapIsda2Y#0001</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1865,7 +1867,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda3Y#0003</v>
+        <v>ChfLiborSwapIsda3Y#0001</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1887,7 +1889,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda4Y#0003</v>
+        <v>ChfLiborSwapIsda4Y#0001</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1909,7 +1911,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda5Y#0007</v>
+        <v>ChfLiborSwapIsda5Y#0001</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1931,7 +1933,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda6Y#0003</v>
+        <v>ChfLiborSwapIsda6Y#0001</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1953,7 +1955,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda7Y#0003</v>
+        <v>ChfLiborSwapIsda7Y#0001</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1975,7 +1977,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda8Y#0003</v>
+        <v>ChfLiborSwapIsda8Y#0001</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1997,7 +1999,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda9Y#0003</v>
+        <v>ChfLiborSwapIsda9Y#0001</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2019,7 +2021,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda10Y#0003</v>
+        <v>ChfLiborSwapIsda10Y#0001</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2041,7 +2043,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda11Y#0003</v>
+        <v>ChfLiborSwapIsda11Y#0001</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2063,7 +2065,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda12Y#0003</v>
+        <v>ChfLiborSwapIsda12Y#0001</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2085,7 +2087,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda13Y#0003</v>
+        <v>ChfLiborSwapIsda13Y#0001</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2107,7 +2109,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda14Y#0003</v>
+        <v>ChfLiborSwapIsda14Y#0001</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2129,7 +2131,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda15Y#0003</v>
+        <v>ChfLiborSwapIsda15Y#0001</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2151,7 +2153,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda16Y#0003</v>
+        <v>ChfLiborSwapIsda16Y#0001</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2173,7 +2175,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda17Y#0003</v>
+        <v>ChfLiborSwapIsda17Y#0001</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2195,7 +2197,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda18Y#0003</v>
+        <v>ChfLiborSwapIsda18Y#0001</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2217,7 +2219,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda19Y#0003</v>
+        <v>ChfLiborSwapIsda19Y#0001</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2239,7 +2241,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda20Y#0003</v>
+        <v>ChfLiborSwapIsda20Y#0001</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2261,7 +2263,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda21Y#0003</v>
+        <v>ChfLiborSwapIsda21Y#0001</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2283,7 +2285,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda22Y#0003</v>
+        <v>ChfLiborSwapIsda22Y#0001</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2305,7 +2307,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda23Y#0003</v>
+        <v>ChfLiborSwapIsda23Y#0001</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2327,7 +2329,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda24Y#0003</v>
+        <v>ChfLiborSwapIsda24Y#0001</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2349,7 +2351,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda25Y#0003</v>
+        <v>ChfLiborSwapIsda25Y#0001</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2371,7 +2373,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda26Y#0003</v>
+        <v>ChfLiborSwapIsda26Y#0001</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2393,7 +2395,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda27Y#0003</v>
+        <v>ChfLiborSwapIsda27Y#0001</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2415,7 +2417,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda28Y#0003</v>
+        <v>ChfLiborSwapIsda28Y#0001</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2437,7 +2439,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda29Y#0003</v>
+        <v>ChfLiborSwapIsda29Y#0001</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2459,7 +2461,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda30Y#0003</v>
+        <v>ChfLiborSwapIsda30Y#0001</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2481,7 +2483,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda31Y#0003</v>
+        <v>ChfLiborSwapIsda31Y#0001</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2503,7 +2505,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda32Y#0003</v>
+        <v>ChfLiborSwapIsda32Y#0001</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2525,7 +2527,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda33Y#0003</v>
+        <v>ChfLiborSwapIsda33Y#0001</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2547,7 +2549,7 @@
       </c>
       <c r="F40" s="41" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda34Y#0003</v>
+        <v>ChfLiborSwapIsda34Y#0001</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2569,7 +2571,7 @@
       </c>
       <c r="F41" s="41" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda35Y#0003</v>
+        <v>ChfLiborSwapIsda35Y#0001</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2591,7 +2593,7 @@
       </c>
       <c r="F42" s="41" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda36Y#0003</v>
+        <v>ChfLiborSwapIsda36Y#0001</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2613,7 +2615,7 @@
       </c>
       <c r="F43" s="41" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda37Y#0003</v>
+        <v>ChfLiborSwapIsda37Y#0001</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -2635,7 +2637,7 @@
       </c>
       <c r="F44" s="41" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda38Y#0003</v>
+        <v>ChfLiborSwapIsda38Y#0001</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -2657,7 +2659,7 @@
       </c>
       <c r="F45" s="41" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda39Y#0003</v>
+        <v>ChfLiborSwapIsda39Y#0001</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -2679,7 +2681,7 @@
       </c>
       <c r="F46" s="41" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda40Y#0003</v>
+        <v>ChfLiborSwapIsda40Y#0001</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2701,7 +2703,7 @@
       </c>
       <c r="F47" s="41" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda41Y#0003</v>
+        <v>ChfLiborSwapIsda41Y#0001</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -2723,7 +2725,7 @@
       </c>
       <c r="F48" s="41" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda42Y#0003</v>
+        <v>ChfLiborSwapIsda42Y#0001</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -2745,7 +2747,7 @@
       </c>
       <c r="F49" s="41" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda43Y#0003</v>
+        <v>ChfLiborSwapIsda43Y#0001</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -2767,7 +2769,7 @@
       </c>
       <c r="F50" s="41" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda44Y#0003</v>
+        <v>ChfLiborSwapIsda44Y#0001</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -2789,7 +2791,7 @@
       </c>
       <c r="F51" s="41" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda45Y#0003</v>
+        <v>ChfLiborSwapIsda45Y#0001</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -2811,7 +2813,7 @@
       </c>
       <c r="F52" s="41" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda46Y#0003</v>
+        <v>ChfLiborSwapIsda46Y#0001</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -2833,7 +2835,7 @@
       </c>
       <c r="F53" s="41" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda47Y#0003</v>
+        <v>ChfLiborSwapIsda47Y#0001</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -2855,7 +2857,7 @@
       </c>
       <c r="F54" s="41" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda48Y#0003</v>
+        <v>ChfLiborSwapIsda48Y#0001</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -2877,7 +2879,7 @@
       </c>
       <c r="F55" s="41" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda49Y#0003</v>
+        <v>ChfLiborSwapIsda49Y#0001</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -2899,7 +2901,7 @@
       </c>
       <c r="F56" s="41" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda50Y#0003</v>
+        <v>ChfLiborSwapIsda50Y#0001</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -2921,7 +2923,7 @@
       </c>
       <c r="F57" s="41" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda51Y#0003</v>
+        <v>ChfLiborSwapIsda51Y#0001</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -2943,7 +2945,7 @@
       </c>
       <c r="F58" s="41" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda52Y#0003</v>
+        <v>ChfLiborSwapIsda52Y#0001</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -2965,7 +2967,7 @@
       </c>
       <c r="F59" s="41" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda53Y#0003</v>
+        <v>ChfLiborSwapIsda53Y#0001</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -2987,7 +2989,7 @@
       </c>
       <c r="F60" s="41" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda54Y#0003</v>
+        <v>ChfLiborSwapIsda54Y#0001</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -3009,7 +3011,7 @@
       </c>
       <c r="F61" s="41" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda55Y#0003</v>
+        <v>ChfLiborSwapIsda55Y#0001</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -3031,7 +3033,7 @@
       </c>
       <c r="F62" s="41" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda56Y#0003</v>
+        <v>ChfLiborSwapIsda56Y#0001</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -3053,7 +3055,7 @@
       </c>
       <c r="F63" s="41" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda57Y#0003</v>
+        <v>ChfLiborSwapIsda57Y#0001</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3075,7 +3077,7 @@
       </c>
       <c r="F64" s="41" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda58Y#0003</v>
+        <v>ChfLiborSwapIsda58Y#0001</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3097,7 +3099,7 @@
       </c>
       <c r="F65" s="41" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda59Y#0003</v>
+        <v>ChfLiborSwapIsda59Y#0001</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3119,7 +3121,7 @@
       </c>
       <c r="F66" s="41" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda60Y#0003</v>
+        <v>ChfLiborSwapIsda60Y#0001</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/ChfLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/ChfLibor.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Libor" sheetId="5" r:id="rId2"/>
     <sheet name="LiborSwapIsda" sheetId="6" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$5</definedName>
     <definedName name="FamilyName" localSheetId="1">Libor!$F$3</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
   <si>
     <t>Trigger</t>
   </si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>LiborYC1Y</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -789,24 +789,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1196,9 +1178,8 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+      <c r="D9" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1307,7 +1288,7 @@
       </c>
       <c r="G5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\ChfLibor.xml</v>
+        <v/>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1805,7 +1786,7 @@
       </c>
       <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\ChfLiborSwapIsda.xml</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/ChfLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/ChfLibor.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
   <si>
     <t>Trigger</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>LiborYC1Y</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1175,9 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>97</v>
+      <c r="D9" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1283,12 +1281,12 @@
         <v>ChfLibor.xml</v>
       </c>
       <c r="F5" s="52" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="49" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" s="49" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1781,12 +1779,12 @@
         <v>ChfLiborSwapIsda.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/ChfLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/ChfLibor.xlsx
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1097,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1280,13 +1280,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>ChfLibor.xml</v>
       </c>
-      <c r="F5" s="52" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" s="49" t="e">
+      <c r="F5" s="52">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>18</v>
+      </c>
+      <c r="G5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F6" s="54" t="str">
         <f>_xll.qlLibor($E6,Currency,$C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborON#0001</v>
+        <v>ChfLiborON#0003</v>
       </c>
       <c r="G6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F7" s="54" t="str">
         <f>_xll.qlLibor($E7,Currency,$C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborTN#0001</v>
+        <v>ChfLiborTN#0003</v>
       </c>
       <c r="G7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F8" s="54" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSN#0001</v>
+        <v>ChfLiborSN#0003</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="F9" s="54" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSW#0001</v>
+        <v>ChfLiborSW#0003</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F10" s="54" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor2W#0001</v>
+        <v>ChfLibor2W#0003</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="F11" s="54" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor3W#0001</v>
+        <v>ChfLibor3W#0003</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="F12" s="54" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor1M#0001</v>
+        <v>ChfLibor1M#0003</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="F13" s="54" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor2M#0001</v>
+        <v>ChfLibor2M#0003</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="F14" s="54" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor3M#0001</v>
+        <v>ChfLibor3M#0003</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="F15" s="54" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor4M#0001</v>
+        <v>ChfLibor4M#0003</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="F16" s="54" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor5M#0001</v>
+        <v>ChfLibor5M#0003</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="F17" s="54" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor6M#0001</v>
+        <v>ChfLibor6M#0003</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F18" s="54" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor7M#0001</v>
+        <v>ChfLibor7M#0003</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F19" s="54" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor8M#0001</v>
+        <v>ChfLibor8M#0003</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="F20" s="54" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor9M#0001</v>
+        <v>ChfLibor9M#0003</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="F21" s="54" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor10M#0001</v>
+        <v>ChfLibor10M#0003</v>
       </c>
       <c r="G21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="F22" s="54" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor11M#0001</v>
+        <v>ChfLibor11M#0003</v>
       </c>
       <c r="G22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="F23" s="54" t="str">
         <f>_xll.qlLibor($E23,Currency,$C23,Currency&amp;$D23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLibor1Y#0001</v>
+        <v>ChfLibor1Y#0003</v>
       </c>
       <c r="G23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -1778,13 +1778,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>ChfLiborSwapIsda.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda1Y#0001</v>
+        <v>ChfLiborSwapIsda1Y#0003</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda2Y#0001</v>
+        <v>ChfLiborSwapIsda2Y#0003</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda3Y#0001</v>
+        <v>ChfLiborSwapIsda3Y#0003</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda4Y#0001</v>
+        <v>ChfLiborSwapIsda4Y#0003</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda5Y#0001</v>
+        <v>ChfLiborSwapIsda5Y#0003</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda6Y#0001</v>
+        <v>ChfLiborSwapIsda6Y#0003</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda7Y#0001</v>
+        <v>ChfLiborSwapIsda7Y#0003</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda8Y#0001</v>
+        <v>ChfLiborSwapIsda8Y#0003</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda9Y#0001</v>
+        <v>ChfLiborSwapIsda9Y#0003</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda10Y#0001</v>
+        <v>ChfLiborSwapIsda10Y#0003</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda11Y#0001</v>
+        <v>ChfLiborSwapIsda11Y#0003</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda12Y#0001</v>
+        <v>ChfLiborSwapIsda12Y#0003</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda13Y#0001</v>
+        <v>ChfLiborSwapIsda13Y#0003</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda14Y#0001</v>
+        <v>ChfLiborSwapIsda14Y#0003</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda15Y#0001</v>
+        <v>ChfLiborSwapIsda15Y#0003</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda16Y#0001</v>
+        <v>ChfLiborSwapIsda16Y#0003</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda17Y#0001</v>
+        <v>ChfLiborSwapIsda17Y#0003</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda18Y#0001</v>
+        <v>ChfLiborSwapIsda18Y#0003</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda19Y#0001</v>
+        <v>ChfLiborSwapIsda19Y#0003</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda20Y#0001</v>
+        <v>ChfLiborSwapIsda20Y#0003</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda21Y#0001</v>
+        <v>ChfLiborSwapIsda21Y#0003</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda22Y#0001</v>
+        <v>ChfLiborSwapIsda22Y#0003</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda23Y#0001</v>
+        <v>ChfLiborSwapIsda23Y#0003</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda24Y#0001</v>
+        <v>ChfLiborSwapIsda24Y#0003</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda25Y#0001</v>
+        <v>ChfLiborSwapIsda25Y#0003</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda26Y#0001</v>
+        <v>ChfLiborSwapIsda26Y#0003</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda27Y#0001</v>
+        <v>ChfLiborSwapIsda27Y#0003</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda28Y#0001</v>
+        <v>ChfLiborSwapIsda28Y#0003</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda29Y#0001</v>
+        <v>ChfLiborSwapIsda29Y#0003</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda30Y#0001</v>
+        <v>ChfLiborSwapIsda30Y#0003</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda31Y#0001</v>
+        <v>ChfLiborSwapIsda31Y#0003</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda32Y#0001</v>
+        <v>ChfLiborSwapIsda32Y#0003</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda33Y#0001</v>
+        <v>ChfLiborSwapIsda33Y#0003</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="F40" s="41" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda34Y#0001</v>
+        <v>ChfLiborSwapIsda34Y#0003</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F41" s="41" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda35Y#0001</v>
+        <v>ChfLiborSwapIsda35Y#0003</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F42" s="41" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda36Y#0001</v>
+        <v>ChfLiborSwapIsda36Y#0003</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="F43" s="41" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda37Y#0001</v>
+        <v>ChfLiborSwapIsda37Y#0003</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F44" s="41" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda38Y#0001</v>
+        <v>ChfLiborSwapIsda38Y#0003</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="F45" s="41" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda39Y#0001</v>
+        <v>ChfLiborSwapIsda39Y#0003</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="F46" s="41" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda40Y#0001</v>
+        <v>ChfLiborSwapIsda40Y#0003</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="F47" s="41" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda41Y#0001</v>
+        <v>ChfLiborSwapIsda41Y#0003</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="F48" s="41" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda42Y#0001</v>
+        <v>ChfLiborSwapIsda42Y#0003</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="F49" s="41" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda43Y#0001</v>
+        <v>ChfLiborSwapIsda43Y#0003</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F50" s="41" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda44Y#0001</v>
+        <v>ChfLiborSwapIsda44Y#0003</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="F51" s="41" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda45Y#0001</v>
+        <v>ChfLiborSwapIsda45Y#0003</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F52" s="41" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda46Y#0001</v>
+        <v>ChfLiborSwapIsda46Y#0003</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="F53" s="41" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda47Y#0001</v>
+        <v>ChfLiborSwapIsda47Y#0003</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F54" s="41" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda48Y#0001</v>
+        <v>ChfLiborSwapIsda48Y#0003</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="F55" s="41" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda49Y#0001</v>
+        <v>ChfLiborSwapIsda49Y#0003</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="F56" s="41" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda50Y#0001</v>
+        <v>ChfLiborSwapIsda50Y#0003</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F57" s="41" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda51Y#0001</v>
+        <v>ChfLiborSwapIsda51Y#0003</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F58" s="41" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda52Y#0001</v>
+        <v>ChfLiborSwapIsda52Y#0003</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="F59" s="41" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda53Y#0001</v>
+        <v>ChfLiborSwapIsda53Y#0003</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="F60" s="41" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda54Y#0001</v>
+        <v>ChfLiborSwapIsda54Y#0003</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="F61" s="41" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda55Y#0001</v>
+        <v>ChfLiborSwapIsda55Y#0003</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="F62" s="41" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda56Y#0001</v>
+        <v>ChfLiborSwapIsda56Y#0003</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F63" s="41" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda57Y#0001</v>
+        <v>ChfLiborSwapIsda57Y#0003</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="F64" s="41" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda58Y#0001</v>
+        <v>ChfLiborSwapIsda58Y#0003</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="F65" s="41" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda59Y#0001</v>
+        <v>ChfLiborSwapIsda59Y#0003</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="F66" s="41" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>ChfLiborSwapIsda60Y#0001</v>
+        <v>ChfLiborSwapIsda60Y#0003</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
